--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,16 +40,25 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>warned</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>death</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>arrested</t>
@@ -58,400 +67,454 @@
     <t>die</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crash</t>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>disgusting</t>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>fear</t>
+    <t>vulnerable</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>shortages</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>oil</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>yourself</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>yourself</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -809,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,10 +880,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -899,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -949,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -978,13 +1041,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9130434782608695</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -996,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1020,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1028,13 +1091,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1049,16 +1112,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1070,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1078,13 +1141,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1096,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1128,13 +1191,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8648648648648649</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1146,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1170,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1178,13 +1241,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8620689655172413</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1199,16 +1262,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1220,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1228,13 +1291,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8561643835616438</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1246,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1270,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1278,13 +1341,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8421052631578947</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1296,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1320,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1328,13 +1391,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.84</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1346,31 +1409,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12">
+        <v>0.9069767441860465</v>
+      </c>
+      <c r="L12">
+        <v>39</v>
+      </c>
+      <c r="M12">
+        <v>39</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>4</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="L12">
-        <v>17</v>
-      </c>
-      <c r="M12">
-        <v>17</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1378,13 +1441,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1396,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1420,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1428,13 +1491,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8125</v>
+        <v>0.84</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1446,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K14">
-        <v>0.8903394255874674</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>341</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>341</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1470,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1478,13 +1541,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8076923076923077</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1496,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>0.8837209302325582</v>
+        <v>0.8828125</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1520,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1528,13 +1591,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1546,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K16">
-        <v>0.8732394366197183</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L16">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1570,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1578,13 +1641,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7941176470588235</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1596,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K17">
-        <v>0.86875</v>
+        <v>0.875</v>
       </c>
       <c r="L17">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="M17">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1620,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1628,13 +1691,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7647058823529411</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1646,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K18">
-        <v>0.8679245283018868</v>
+        <v>0.875</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1670,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1678,7 +1741,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -1696,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K19">
         <v>0.8636363636363636</v>
@@ -1728,13 +1791,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7368421052631579</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1746,31 +1809,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L20">
+        <v>31</v>
+      </c>
+      <c r="M20">
+        <v>31</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>5</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L20">
-        <v>50</v>
-      </c>
-      <c r="M20">
-        <v>50</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1778,13 +1841,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7368421052631579</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1796,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K21">
-        <v>0.8515625</v>
+        <v>0.85625</v>
       </c>
       <c r="L21">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1820,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1828,13 +1891,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7307692307692307</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1846,31 +1909,31 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>7</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22">
-        <v>0.8414634146341463</v>
-      </c>
-      <c r="L22">
-        <v>69</v>
-      </c>
-      <c r="M22">
-        <v>69</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1878,13 +1941,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1896,31 +1959,31 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="L23">
+        <v>49</v>
+      </c>
+      <c r="M23">
+        <v>49</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>9</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L23">
-        <v>39</v>
-      </c>
-      <c r="M23">
-        <v>39</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1928,7 +1991,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6956521739130435</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C24">
         <v>16</v>
@@ -1946,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K24">
-        <v>0.8235294117647058</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1978,13 +2041,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6956521739130435</v>
+        <v>0.725</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1996,19 +2059,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K25">
-        <v>0.8214285714285714</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2020,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2028,13 +2091,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6937984496124031</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C26">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2046,19 +2109,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="K26">
-        <v>0.8205128205128205</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2070,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2078,13 +2141,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6878306878306878</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C27">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2096,19 +2159,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K27">
-        <v>0.8148148148148148</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2128,13 +2191,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6862745098039216</v>
+        <v>0.6957364341085271</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2146,19 +2209,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K28">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2170,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2178,13 +2241,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2196,31 +2259,31 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L29">
+        <v>22</v>
+      </c>
+      <c r="M29">
+        <v>22</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>6</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K29">
-        <v>0.8</v>
-      </c>
-      <c r="L29">
-        <v>32</v>
-      </c>
-      <c r="M29">
-        <v>32</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2228,13 +2291,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2246,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K30">
-        <v>0.7936507936507936</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2270,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2278,13 +2341,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6610169491525424</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2296,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K31">
-        <v>0.7916666666666666</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2320,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2328,13 +2391,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6451612903225806</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2346,19 +2409,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K32">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2378,13 +2441,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6410256410256411</v>
+        <v>0.65</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2396,19 +2459,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K33">
-        <v>0.7428571428571429</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2420,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2428,13 +2491,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6308724832214765</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C34">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2446,19 +2509,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K34">
-        <v>0.7368421052631579</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2470,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2478,13 +2541,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6055555555555555</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C35">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2496,19 +2559,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K35">
-        <v>0.7352941176470589</v>
+        <v>0.75</v>
       </c>
       <c r="L35">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2520,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>90</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2528,13 +2591,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5945945945945946</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2546,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K36">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2578,13 +2641,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.59375</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2596,19 +2659,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K37">
-        <v>0.7254901960784313</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2620,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2628,13 +2691,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5909090909090909</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2646,19 +2709,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K38">
-        <v>0.72</v>
+        <v>0.7323529411764705</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2670,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2678,13 +2741,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5909090909090909</v>
+        <v>0.5973154362416108</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2696,19 +2759,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K39">
-        <v>0.7142857142857143</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2720,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2728,13 +2791,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5818181818181818</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2746,19 +2809,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K40">
-        <v>0.7108843537414966</v>
+        <v>0.725</v>
       </c>
       <c r="L40">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2767,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2778,13 +2841,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5806451612903226</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2796,19 +2859,19 @@
         <v>0</v>
       </c>
       <c r="H41">
+        <v>151</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K41">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L41">
         <v>13</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K41">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
       <c r="M41">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2820,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2828,37 +2891,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5555555555555556</v>
+        <v>0.5625</v>
       </c>
       <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K42">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L42">
         <v>20</v>
       </c>
-      <c r="D42">
+      <c r="M42">
         <v>20</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>16</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K42">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L42">
-        <v>19</v>
-      </c>
-      <c r="M42">
-        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2899,16 +2962,16 @@
         <v>11</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K43">
-        <v>0.7021276595744681</v>
+        <v>0.7</v>
       </c>
       <c r="L43">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2920,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2928,37 +2991,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5384615384615384</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>14</v>
       </c>
-      <c r="D44">
-        <v>14</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>12</v>
-      </c>
       <c r="J44" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K44">
-        <v>0.7</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L44">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2970,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2978,7 +3041,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5178571428571429</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C45">
         <v>29</v>
@@ -2996,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K45">
-        <v>0.6861924686192469</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L45">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3020,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3028,13 +3091,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.5128205128205128</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3046,19 +3109,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K46">
-        <v>0.6666666666666666</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3070,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3081,34 +3144,34 @@
         <v>0.5</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K47">
-        <v>0.6615384615384615</v>
+        <v>0.6861924686192469</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3120,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3128,13 +3191,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.48</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3146,19 +3209,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K48">
-        <v>0.6538461538461539</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3170,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3178,13 +3241,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4333333333333333</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C49">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3196,19 +3259,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K49">
-        <v>0.6404494382022472</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L49">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M49">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3220,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3228,13 +3291,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3246,19 +3309,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K50">
-        <v>0.625</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3270,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3278,7 +3341,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3376623376623377</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C51">
         <v>26</v>
@@ -3296,19 +3359,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K51">
-        <v>0.6222222222222222</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3320,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3328,13 +3391,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3333333333333333</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C52">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3346,19 +3409,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K52">
-        <v>0.6086956521739131</v>
+        <v>0.625</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3378,13 +3441,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.275</v>
+        <v>0.4</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3396,31 +3459,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K53">
-        <v>0.6071428571428571</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L53">
+        <v>28</v>
+      </c>
+      <c r="M53">
+        <v>28</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>17</v>
-      </c>
-      <c r="M53">
-        <v>17</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3428,13 +3491,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2546916890080429</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C54">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D54">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3446,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K54">
-        <v>0.6060606060606061</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3470,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3478,7 +3541,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08666666666666667</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C55">
         <v>26</v>
@@ -3496,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>274</v>
+        <v>51</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K55">
-        <v>0.5833333333333334</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3520,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3528,37 +3591,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.01136363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C56">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="E56">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>2349</v>
+        <v>168</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K56">
-        <v>0.5652173913043478</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3570,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3578,37 +3641,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.009350163627863487</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E57">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>2119</v>
+        <v>34</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K57">
-        <v>0.5616438356164384</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L57">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3620,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3628,37 +3691,37 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.009026434558349452</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="C58">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>28</v>
       </c>
-      <c r="D58">
-        <v>33</v>
-      </c>
-      <c r="E58">
-        <v>0.15</v>
-      </c>
-      <c r="F58">
-        <v>0.85</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>3074</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K58">
-        <v>0.5512820512820513</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L58">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3670,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3678,37 +3741,37 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.006959547629404089</v>
+        <v>0.2412868632707775</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="E59">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>2283</v>
+        <v>283</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K59">
-        <v>0.5483870967741935</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3720,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3728,49 +3791,49 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.005444293214077387</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C60">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E60">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>5115</v>
+        <v>46</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K60">
-        <v>0.5476190476190477</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="L60">
         <v>23</v>
       </c>
       <c r="M60">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3778,37 +3841,37 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004641448131817127</v>
+        <v>0.1233333333333333</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D61">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E61">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>4289</v>
+        <v>263</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K61">
-        <v>0.5254237288135594</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3820,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3828,31 +3891,31 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004406672961913755</v>
+        <v>0.02121640735502122</v>
       </c>
       <c r="C62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="F62">
-        <v>0.37</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>3163</v>
+        <v>692</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K62">
-        <v>0.515625</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L62">
         <v>33</v>
@@ -3870,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3878,543 +3941,1069 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003823706983296438</v>
+        <v>0.02096774193548387</v>
       </c>
       <c r="C63">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <v>0.35</v>
+      </c>
+      <c r="F63">
+        <v>0.65</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>607</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K63">
+        <v>0.484375</v>
+      </c>
+      <c r="L63">
+        <v>31</v>
+      </c>
+      <c r="M63">
+        <v>31</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.01722652885443583</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1141</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K64">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="L64">
+        <v>15</v>
+      </c>
+      <c r="M64">
+        <v>15</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.01266357112705783</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>0.25</v>
+      </c>
+      <c r="F65">
+        <v>0.75</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>2339</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K65">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L65">
+        <v>13</v>
+      </c>
+      <c r="M65">
+        <v>13</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.01146384479717813</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66">
         <v>19</v>
       </c>
-      <c r="D63">
-        <v>46</v>
-      </c>
-      <c r="E63">
-        <v>0.59</v>
-      </c>
-      <c r="F63">
-        <v>0.41</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>4950</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K63">
+      <c r="E66">
+        <v>0.32</v>
+      </c>
+      <c r="F66">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1121</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K66">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L66">
+        <v>31</v>
+      </c>
+      <c r="M66">
+        <v>31</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.009674298613350531</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>36</v>
+      </c>
+      <c r="E67">
+        <v>0.17</v>
+      </c>
+      <c r="F67">
+        <v>0.83</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>3071</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K67">
+        <v>0.3859649122807017</v>
+      </c>
+      <c r="L67">
+        <v>22</v>
+      </c>
+      <c r="M67">
+        <v>22</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.00749063670411985</v>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>23</v>
+      </c>
+      <c r="E68">
+        <v>0.3</v>
+      </c>
+      <c r="F68">
+        <v>0.7</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>2120</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K68">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="L68">
+        <v>13</v>
+      </c>
+      <c r="M68">
+        <v>13</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.006627680311890838</v>
+      </c>
+      <c r="C69">
+        <v>34</v>
+      </c>
+      <c r="D69">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <v>0.51</v>
+      </c>
+      <c r="F69">
+        <v>0.49</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>5096</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K69">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="L69">
+        <v>13</v>
+      </c>
+      <c r="M69">
+        <v>13</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.006243705941591138</v>
+      </c>
+      <c r="C70">
+        <v>31</v>
+      </c>
+      <c r="D70">
+        <v>62</v>
+      </c>
+      <c r="E70">
         <v>0.5</v>
       </c>
-      <c r="L63">
+      <c r="F70">
+        <v>0.5</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>4934</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K70">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="L70">
+        <v>20</v>
+      </c>
+      <c r="M70">
+        <v>20</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.006092254134029591</v>
+      </c>
+      <c r="C71">
         <v>14</v>
       </c>
-      <c r="M63">
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>0.44</v>
+      </c>
+      <c r="F71">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>2284</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K71">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L71">
+        <v>16</v>
+      </c>
+      <c r="M71">
+        <v>16</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.005819366852886406</v>
+      </c>
+      <c r="C72">
+        <v>25</v>
+      </c>
+      <c r="D72">
+        <v>57</v>
+      </c>
+      <c r="E72">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F72">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>4271</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K72">
+        <v>0.2201834862385321</v>
+      </c>
+      <c r="L72">
+        <v>24</v>
+      </c>
+      <c r="M72">
+        <v>24</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.005766062602965404</v>
+      </c>
+      <c r="C73">
         <v>14</v>
       </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="J64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K64">
-        <v>0.4193548387096774</v>
-      </c>
-      <c r="L64">
+      <c r="D73">
+        <v>31</v>
+      </c>
+      <c r="E73">
+        <v>0.55</v>
+      </c>
+      <c r="F73">
+        <v>0.45</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>2414</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K73">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="L73">
         <v>13</v>
       </c>
-      <c r="M64">
+      <c r="M73">
         <v>13</v>
       </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K65">
-        <v>0.4</v>
-      </c>
-      <c r="L65">
-        <v>14</v>
-      </c>
-      <c r="M65">
-        <v>14</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K66">
-        <v>0.3823529411764706</v>
-      </c>
-      <c r="L66">
-        <v>13</v>
-      </c>
-      <c r="M66">
-        <v>13</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K67">
-        <v>0.3770491803278688</v>
-      </c>
-      <c r="L67">
-        <v>23</v>
-      </c>
-      <c r="M67">
-        <v>23</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K68">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L68">
-        <v>19</v>
-      </c>
-      <c r="M68">
-        <v>19</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K69">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="L69">
-        <v>15</v>
-      </c>
-      <c r="M69">
-        <v>15</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K70">
-        <v>0.1743119266055046</v>
-      </c>
-      <c r="L70">
-        <v>19</v>
-      </c>
-      <c r="M70">
-        <v>19</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K71">
-        <v>0.1129032258064516</v>
-      </c>
-      <c r="L71">
-        <v>14</v>
-      </c>
-      <c r="M71">
-        <v>14</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K72">
-        <v>0.02747252747252747</v>
-      </c>
-      <c r="L72">
-        <v>15</v>
-      </c>
-      <c r="M72">
-        <v>16</v>
-      </c>
-      <c r="N72">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O72">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K73">
-        <v>0.01919866444073456</v>
-      </c>
-      <c r="L73">
-        <v>23</v>
-      </c>
-      <c r="M73">
-        <v>25</v>
-      </c>
-      <c r="N73">
-        <v>0.92</v>
-      </c>
-      <c r="O73">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="74" spans="10:17">
+    <row r="74" spans="1:17">
       <c r="J74" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="K74">
-        <v>0.01668520578420467</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L74">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N74">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="75" spans="10:17">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="J75" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K75">
-        <v>0.01071203528670447</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="L75">
         <v>17</v>
       </c>
       <c r="M75">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N75">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="76" spans="10:17">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="J76" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K76">
-        <v>0.00975975975975976</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L76">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M76">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="N76">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="J77" s="1" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="K77">
-        <v>0.007530593034201443</v>
+        <v>0.04570383912248629</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M77">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N77">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="78" spans="10:17">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="J78" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K78">
-        <v>0.006970069700697007</v>
+        <v>0.04424040066777963</v>
       </c>
       <c r="L78">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="M78">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N78">
-        <v>0.74</v>
+        <v>0.96</v>
       </c>
       <c r="O78">
-        <v>0.26</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="79" spans="10:17">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="J79" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="K79">
-        <v>0.005857740585774059</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L79">
         <v>14</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N79">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="80" spans="10:17">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="J80" s="1" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="K80">
-        <v>0.0054249547920434</v>
+        <v>0.03110047846889952</v>
       </c>
       <c r="L80">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M80">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="N80">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>4950</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="K81">
-        <v>0.004410399257195914</v>
+        <v>0.02159468438538206</v>
       </c>
       <c r="L81">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M81">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>0.49</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O81">
-        <v>0.51</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>4289</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="K82">
-        <v>0.004282655246252677</v>
+        <v>0.01888888888888889</v>
       </c>
       <c r="L82">
+        <v>17</v>
+      </c>
+      <c r="M82">
+        <v>18</v>
+      </c>
+      <c r="N82">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O82">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K83">
+        <v>0.01720093823299453</v>
+      </c>
+      <c r="L83">
         <v>22</v>
       </c>
-      <c r="M82">
-        <v>50</v>
-      </c>
-      <c r="N82">
-        <v>0.44</v>
-      </c>
-      <c r="O82">
+      <c r="M83">
+        <v>32</v>
+      </c>
+      <c r="N83">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O83">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K84">
+        <v>0.01350048216007715</v>
+      </c>
+      <c r="L84">
+        <v>14</v>
+      </c>
+      <c r="M84">
+        <v>17</v>
+      </c>
+      <c r="N84">
+        <v>0.82</v>
+      </c>
+      <c r="O84">
+        <v>0.18</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K85">
+        <v>0.01240135287485907</v>
+      </c>
+      <c r="L85">
+        <v>33</v>
+      </c>
+      <c r="M85">
+        <v>45</v>
+      </c>
+      <c r="N85">
+        <v>0.73</v>
+      </c>
+      <c r="O85">
+        <v>0.27</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K86">
+        <v>0.01213389121338912</v>
+      </c>
+      <c r="L86">
+        <v>29</v>
+      </c>
+      <c r="M86">
+        <v>33</v>
+      </c>
+      <c r="N86">
+        <v>0.88</v>
+      </c>
+      <c r="O86">
+        <v>0.12</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K87">
+        <v>0.010718789407314</v>
+      </c>
+      <c r="L87">
+        <v>17</v>
+      </c>
+      <c r="M87">
+        <v>25</v>
+      </c>
+      <c r="N87">
+        <v>0.68</v>
+      </c>
+      <c r="O87">
+        <v>0.32</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K88">
+        <v>0.007834534628643058</v>
+      </c>
+      <c r="L88">
+        <v>25</v>
+      </c>
+      <c r="M88">
+        <v>35</v>
+      </c>
+      <c r="N88">
+        <v>0.71</v>
+      </c>
+      <c r="O88">
+        <v>0.29</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K89">
+        <v>0.007436672089240065</v>
+      </c>
+      <c r="L89">
+        <v>32</v>
+      </c>
+      <c r="M89">
+        <v>57</v>
+      </c>
+      <c r="N89">
         <v>0.5600000000000001</v>
       </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>5115</v>
+      <c r="O89">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K90">
+        <v>0.006993006993006993</v>
+      </c>
+      <c r="L90">
+        <v>17</v>
+      </c>
+      <c r="M90">
+        <v>31</v>
+      </c>
+      <c r="N90">
+        <v>0.55</v>
+      </c>
+      <c r="O90">
+        <v>0.45</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K91">
+        <v>0.006821282401091405</v>
+      </c>
+      <c r="L91">
+        <v>35</v>
+      </c>
+      <c r="M91">
+        <v>69</v>
+      </c>
+      <c r="N91">
+        <v>0.51</v>
+      </c>
+      <c r="O91">
+        <v>0.49</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K92">
+        <v>0.006243705941591138</v>
+      </c>
+      <c r="L92">
+        <v>31</v>
+      </c>
+      <c r="M92">
+        <v>62</v>
+      </c>
+      <c r="N92">
+        <v>0.5</v>
+      </c>
+      <c r="O92">
+        <v>0.5</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K93">
+        <v>0.006046511627906976</v>
+      </c>
+      <c r="L93">
+        <v>13</v>
+      </c>
+      <c r="M93">
+        <v>21</v>
+      </c>
+      <c r="N93">
+        <v>0.62</v>
+      </c>
+      <c r="O93">
+        <v>0.38</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>2137</v>
       </c>
     </row>
   </sheetData>
